--- a/src/main/java/com/dsa2024/content/Timesheet.xlsx
+++ b/src/main/java/com/dsa2024/content/Timesheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -88,6 +88,14 @@
     <t xml:space="preserve">Write a Java 8 stream pipeline to group employees by department and find the highest salary in each department.
 Given an integer array and a target element, write a program to search for the index of the element.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-01-2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to reverse a string ?
+How to Create a thread using the Thread class?
+Write a SQL stored procedure that takes startDate and endDate as input and returns how many times Wednesday occurs between those dates.</t>
   </si>
 </sst>
 </file>
@@ -295,10 +303,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -379,11 +387,22 @@
       <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/dsa2024/content/Timesheet.xlsx
+++ b/src/main/java/com/dsa2024/content/Timesheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -96,6 +96,15 @@
     <t xml:space="preserve">How to reverse a string ?
 How to Create a thread using the Thread class?
 Write a SQL stored procedure that takes startDate and endDate as input and returns how many times Wednesday occurs between those dates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-01-2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a SQL query to find the top 3 employees (by total hours logged) 
+who have worked on at least 2 different projects in the last 90 days.
+Also include the number of distinct projects and total hours logged for each.
+You are given three tables: Employees, Projects, and TimeLogs.</t>
   </si>
 </sst>
 </file>
@@ -303,10 +312,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -398,11 +407,22 @@
       <c r="A9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/dsa2024/content/Timesheet.xlsx
+++ b/src/main/java/com/dsa2024/content/Timesheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -105,6 +105,14 @@
 who have worked on at least 2 different projects in the last 90 days.
 Also include the number of distinct projects and total hours logged for each.
 You are given three tables: Employees, Projects, and TimeLogs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-01-2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a list of Transaction objects having id, amount, and status (Pending, Success, Fail),
+group the transactions by status and count how many transactions are there in each status.
+Write an SQL query to find duplicate email addresses in the Employee table and display the email along with the number of occurrences</t>
   </si>
 </sst>
 </file>
@@ -312,10 +320,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -418,11 +426,22 @@
       <c r="A10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/dsa2024/content/Timesheet.xlsx
+++ b/src/main/java/com/dsa2024/content/Timesheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -113,6 +113,19 @@
     <t xml:space="preserve">Given a list of Transaction objects having id, amount, and status (Pending, Success, Fail),
 group the transactions by status and count how many transactions are there in each status.
 Write an SQL query to find duplicate email addresses in the Employee table and display the email along with the number of occurrences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-01-2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We compare the longest matching prefix and suffix to identify all positions where removing one character aligns the strings.
+SingleCharRemoval
+ Write a Java program to create a custom runtime exception InvalidAgeException and throw it when the age is less than 18.
+ValidateAge
+Write a Java program demonstrating the use of ExecutorService with a fixed thread pool.
+FixedThreadPoolExample
+Write a Java program to create and start a thread using the Runnable interface.
+CustomThreadExample</t>
   </si>
 </sst>
 </file>
@@ -320,10 +333,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -437,11 +450,22 @@
       <c r="A11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/dsa2024/content/Timesheet.xlsx
+++ b/src/main/java/com/dsa2024/content/Timesheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -127,6 +127,12 @@
 Write a Java program to create and start a thread using the Runnable interface.
 CustomThreadExample</t>
   </si>
+  <si>
+    <t xml:space="preserve">11-01-2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-01-2026 Leave</t>
+  </si>
 </sst>
 </file>
 
@@ -135,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -165,12 +171,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -227,7 +227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,10 +249,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,10 +329,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -461,11 +457,22 @@
       <c r="A12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/dsa2024/content/Timesheet.xlsx
+++ b/src/main/java/com/dsa2024/content/Timesheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -131,7 +131,16 @@
     <t xml:space="preserve">11-01-2026</t>
   </si>
   <si>
-    <t xml:space="preserve">24-01-2026 Leave</t>
+    <t xml:space="preserve">30-01-2026 Leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-01-2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interviews practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java preparation 1-20 question theory and 1-5 java code</t>
   </si>
 </sst>
 </file>
@@ -329,10 +338,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -475,6 +484,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/com/dsa2024/content/Timesheet.xlsx
+++ b/src/main/java/com/dsa2024/content/Timesheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t xml:space="preserve">java preparation 1-20 question theory and 1-5 java code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-02-2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-02-2026 Leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No reason</t>
   </si>
 </sst>
 </file>
@@ -338,10 +347,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,6 +504,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="15" s="5" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
